--- a/TuVung/Lesson26/tuvung.xlsx
+++ b/TuVung/Lesson26/tuvung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\TuVung\Lesson26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D44FA5-2F46-4EC6-9A03-F00D7CC7B98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB85FF5F-D0E8-4BF1-89F9-F0A3F8DE7833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>thắng</t>
   </si>
   <si>
-    <t>第二十五課</t>
-  </si>
-  <si>
     <t>まにあう </t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>駅に着く</t>
   </si>
   <si>
-    <t>試合に勝つ  </t>
-  </si>
-  <si>
     <t>試合に負ける</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>エベントに参加する</t>
   </si>
   <si>
-    <t>眠い   </t>
-  </si>
-  <si>
     <t>都合が悪い   </t>
   </si>
   <si>
@@ -354,21 +345,12 @@
     <t>橋を渡る </t>
   </si>
   <si>
-    <t>  宝くじを当たる    </t>
-  </si>
-  <si>
     <t>生活を困る</t>
   </si>
   <si>
     <t>つまみを回す</t>
   </si>
   <si>
-    <t>氷を解ける  </t>
-  </si>
-  <si>
-    <t>資料を足りる </t>
-  </si>
-  <si>
     <t>こうりゅう</t>
   </si>
   <si>
@@ -376,6 +358,24 @@
   </si>
   <si>
     <t>～量</t>
+  </si>
+  <si>
+    <t>  宝くじを当たる</t>
+  </si>
+  <si>
+    <t>眠い</t>
+  </si>
+  <si>
+    <t>資料を足りる</t>
+  </si>
+  <si>
+    <t>氷を解ける</t>
+  </si>
+  <si>
+    <t>試合に勝つ</t>
+  </si>
+  <si>
+    <t>第二十六課</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -770,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,104 +808,104 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -911,306 +921,306 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
@@ -1236,22 +1246,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C12:C13">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C28">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C29 C31:C36">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29 C31:C36">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B3:B14 B16:B55 B15:C15">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D206">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B2))&lt;LEN(B2)</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
